--- a/test_env/database_creation/annualdata.xlsx
+++ b/test_env/database_creation/annualdata.xlsx
@@ -854,13 +854,13 @@
         <v>1991</v>
       </c>
       <c r="C25" t="n">
-        <v>1.595615765228053</v>
+        <v>1.611659943816009</v>
       </c>
       <c r="D25" t="n">
         <v>0.663940271</v>
       </c>
       <c r="E25" t="n">
-        <v>2.403251971483521</v>
+        <v>2.427417064773902</v>
       </c>
     </row>
     <row r="26">
@@ -871,13 +871,13 @@
         <v>1992</v>
       </c>
       <c r="C26" t="n">
-        <v>1.587111039717572</v>
+        <v>1.597367243579461</v>
       </c>
       <c r="D26" t="n">
         <v>0.658293589</v>
       </c>
       <c r="E26" t="n">
-        <v>2.410947130942775</v>
+        <v>2.426527115365027</v>
       </c>
     </row>
     <row r="27">
@@ -888,13 +888,13 @@
         <v>1993</v>
       </c>
       <c r="C27" t="n">
-        <v>1.590647522567576</v>
+        <v>1.605918165952064</v>
       </c>
       <c r="D27" t="n">
         <v>0.646915074</v>
       </c>
       <c r="E27" t="n">
-        <v>2.458819691327174</v>
+        <v>2.482425020679088</v>
       </c>
     </row>
     <row r="28">
@@ -905,13 +905,13 @@
         <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>1.580908179594125</v>
+        <v>1.59307892879333</v>
       </c>
       <c r="D28" t="n">
         <v>0.66257791</v>
       </c>
       <c r="E28" t="n">
-        <v>2.385995904382211</v>
+        <v>2.404364686400925</v>
       </c>
     </row>
     <row r="29">
@@ -922,13 +922,13 @@
         <v>1995</v>
       </c>
       <c r="C29" t="n">
-        <v>1.568375194080359</v>
+        <v>1.57142940649776</v>
       </c>
       <c r="D29" t="n">
         <v>0.669390321</v>
       </c>
       <c r="E29" t="n">
-        <v>2.342990546587778</v>
+        <v>2.347553224477771</v>
       </c>
     </row>
     <row r="30">
@@ -939,13 +939,13 @@
         <v>1996</v>
       </c>
       <c r="C30" t="n">
-        <v>1.571006564460115</v>
+        <v>1.574550669800569</v>
       </c>
       <c r="D30" t="n">
         <v>0.682337039</v>
       </c>
       <c r="E30" t="n">
-        <v>2.302390863556969</v>
+        <v>2.307584932085988</v>
       </c>
     </row>
     <row r="31">
@@ -956,13 +956,13 @@
         <v>1997</v>
       </c>
       <c r="C31" t="n">
-        <v>1.55292640009169</v>
+        <v>1.557548811605944</v>
       </c>
       <c r="D31" t="n">
         <v>0.6902036</v>
       </c>
       <c r="E31" t="n">
-        <v>2.249954071656089</v>
+        <v>2.256651242627457</v>
       </c>
     </row>
     <row r="32">
@@ -973,13 +973,13 @@
         <v>1998</v>
       </c>
       <c r="C32" t="n">
-        <v>1.564460119006172</v>
+        <v>1.567660016816226</v>
       </c>
       <c r="D32" t="n">
         <v>0.684810923</v>
       </c>
       <c r="E32" t="n">
-        <v>2.284513967961594</v>
+        <v>2.28918664139974</v>
       </c>
     </row>
     <row r="33">
@@ -990,13 +990,13 @@
         <v>1999</v>
       </c>
       <c r="C33" t="n">
-        <v>1.560789876778727</v>
+        <v>1.562922593102546</v>
       </c>
       <c r="D33" t="n">
         <v>0.690682024</v>
       </c>
       <c r="E33" t="n">
-        <v>2.259780655271154</v>
+        <v>2.262868496346657</v>
       </c>
     </row>
     <row r="34">
@@ -1007,13 +1007,13 @@
         <v>2000</v>
       </c>
       <c r="C34" t="n">
-        <v>1.545658898732513</v>
+        <v>1.550794040910641</v>
       </c>
       <c r="D34" t="n">
         <v>0.710701581</v>
       </c>
       <c r="E34" t="n">
-        <v>2.174835317740081</v>
+        <v>2.182060772579935</v>
       </c>
     </row>
     <row r="35">
@@ -1024,13 +1024,13 @@
         <v>2001</v>
       </c>
       <c r="C35" t="n">
-        <v>1.538188328586423</v>
+        <v>1.549670117056233</v>
       </c>
       <c r="D35" t="n">
         <v>0.692407769</v>
       </c>
       <c r="E35" t="n">
-        <v>2.221506455376619</v>
+        <v>2.238088863870379</v>
       </c>
     </row>
     <row r="36">
@@ -1041,13 +1041,13 @@
         <v>2002</v>
       </c>
       <c r="C36" t="n">
-        <v>1.490761348677645</v>
+        <v>1.492901046955603</v>
       </c>
       <c r="D36" t="n">
         <v>0.713362113</v>
       </c>
       <c r="E36" t="n">
-        <v>2.089768045583947</v>
+        <v>2.092767501595088</v>
       </c>
     </row>
     <row r="37">
@@ -1058,13 +1058,13 @@
         <v>2003</v>
       </c>
       <c r="C37" t="n">
-        <v>1.43112260198024</v>
+        <v>1.434168355990708</v>
       </c>
       <c r="D37" t="n">
         <v>0.715767847</v>
       </c>
       <c r="E37" t="n">
-        <v>1.999422868711565</v>
+        <v>2.003678094792526</v>
       </c>
     </row>
     <row r="38">
@@ -1075,13 +1075,13 @@
         <v>2004</v>
       </c>
       <c r="C38" t="n">
-        <v>1.423416652875248</v>
+        <v>1.425592434201416</v>
       </c>
       <c r="D38" t="n">
         <v>0.73391155</v>
       </c>
       <c r="E38" t="n">
-        <v>1.939493461950895</v>
+        <v>1.942458098937694</v>
       </c>
     </row>
     <row r="39">
@@ -1092,13 +1092,13 @@
         <v>2005</v>
       </c>
       <c r="C39" t="n">
-        <v>1.398190718082066</v>
+        <v>1.40002641424073</v>
       </c>
       <c r="D39" t="n">
         <v>0.749427571</v>
       </c>
       <c r="E39" t="n">
-        <v>1.865678248554943</v>
+        <v>1.868127712959109</v>
       </c>
     </row>
     <row r="40">
@@ -1109,13 +1109,13 @@
         <v>2006</v>
       </c>
       <c r="C40" t="n">
-        <v>1.38690743895356</v>
+        <v>1.388313963397991</v>
       </c>
       <c r="D40" t="n">
         <v>0.758150692</v>
       </c>
       <c r="E40" t="n">
-        <v>1.829329516662316</v>
+        <v>1.831184720989466</v>
       </c>
     </row>
     <row r="41">
@@ -1126,13 +1126,13 @@
         <v>2007</v>
       </c>
       <c r="C41" t="n">
-        <v>1.367763706499378</v>
+        <v>1.379688372479895</v>
       </c>
       <c r="D41" t="n">
         <v>0.768047272</v>
       </c>
       <c r="E41" t="n">
-        <v>1.780832712207561</v>
+        <v>1.796358665381595</v>
       </c>
     </row>
     <row r="42">
@@ -1143,13 +1143,13 @@
         <v>2008</v>
       </c>
       <c r="C42" t="n">
-        <v>1.348330905392997</v>
+        <v>1.360661427538693</v>
       </c>
       <c r="D42" t="n">
         <v>0.760138426</v>
       </c>
       <c r="E42" t="n">
-        <v>1.773796533992083</v>
+        <v>1.790017950676122</v>
       </c>
     </row>
     <row r="43">
@@ -1160,13 +1160,13 @@
         <v>2009</v>
       </c>
       <c r="C43" t="n">
-        <v>1.34910930186889</v>
+        <v>1.352045644532072</v>
       </c>
       <c r="D43" t="n">
         <v>0.766817019</v>
       </c>
       <c r="E43" t="n">
-        <v>1.759362753357056</v>
+        <v>1.763192014563349</v>
       </c>
     </row>
     <row r="44">
@@ -1177,13 +1177,13 @@
         <v>2010</v>
       </c>
       <c r="C44" t="n">
-        <v>1.361176927329268</v>
+        <v>1.374690287479232</v>
       </c>
       <c r="D44" t="n">
         <v>0.781701864</v>
       </c>
       <c r="E44" t="n">
-        <v>1.741299323969973</v>
+        <v>1.758586426345316</v>
       </c>
     </row>
     <row r="45">
@@ -1194,13 +1194,13 @@
         <v>2011</v>
       </c>
       <c r="C45" t="n">
-        <v>1.338978684893929</v>
+        <v>1.346648111184701</v>
       </c>
       <c r="D45" t="n">
         <v>0.780066119</v>
       </c>
       <c r="E45" t="n">
-        <v>1.716493835946141</v>
+        <v>1.726325600336324</v>
       </c>
     </row>
     <row r="46">
@@ -1211,13 +1211,13 @@
         <v>2012</v>
       </c>
       <c r="C46" t="n">
-        <v>1.348682551115361</v>
+        <v>1.350204987231628</v>
       </c>
       <c r="D46" t="n">
         <v>0.788622465</v>
       </c>
       <c r="E46" t="n">
-        <v>1.710175161083398</v>
+        <v>1.71210566165095</v>
       </c>
     </row>
     <row r="47">
@@ -1228,13 +1228,13 @@
         <v>2013</v>
       </c>
       <c r="C47" t="n">
-        <v>1.346093512523553</v>
+        <v>1.361072189687606</v>
       </c>
       <c r="D47" t="n">
         <v>0.794820537</v>
       </c>
       <c r="E47" t="n">
-        <v>1.693581695314892</v>
+        <v>1.712427052809792</v>
       </c>
     </row>
     <row r="48">
@@ -1245,13 +1245,13 @@
         <v>2014</v>
       </c>
       <c r="C48" t="n">
-        <v>1.33375860316972</v>
+        <v>1.338776677138519</v>
       </c>
       <c r="D48" t="n">
         <v>0.797185022</v>
       </c>
       <c r="E48" t="n">
-        <v>1.673085377123053</v>
+        <v>1.679380119034046</v>
       </c>
     </row>
     <row r="49">
@@ -1262,13 +1262,13 @@
         <v>2015</v>
       </c>
       <c r="C49" t="n">
-        <v>1.311111023256548</v>
+        <v>1.326992189581744</v>
       </c>
       <c r="D49" t="n">
         <v>0.802386545</v>
       </c>
       <c r="E49" t="n">
-        <v>1.634014218491847</v>
+        <v>1.653806632041349</v>
       </c>
     </row>
     <row r="50">
@@ -1279,13 +1279,13 @@
         <v>2016</v>
       </c>
       <c r="C50" t="n">
-        <v>1.304076928598257</v>
+        <v>1.318509483997258</v>
       </c>
       <c r="D50" t="n">
         <v>0.80285518</v>
       </c>
       <c r="E50" t="n">
-        <v>1.624299077946108</v>
+        <v>1.64227561438572</v>
       </c>
     </row>
     <row r="51">
@@ -1296,13 +1296,13 @@
         <v>2017</v>
       </c>
       <c r="C51" t="n">
-        <v>1.303807090909727</v>
+        <v>1.317961609015017</v>
       </c>
       <c r="D51" t="n">
         <v>0.814775397</v>
       </c>
       <c r="E51" t="n">
-        <v>1.600204296435975</v>
+        <v>1.617576590883509</v>
       </c>
     </row>
     <row r="52">
@@ -1313,13 +1313,13 @@
         <v>2018</v>
       </c>
       <c r="C52" t="n">
-        <v>1.297635272883676</v>
+        <v>1.298223095620389</v>
       </c>
       <c r="D52" t="n">
         <v>0.816034876</v>
       </c>
       <c r="E52" t="n">
-        <v>1.590171340769601</v>
+        <v>1.590891680982993</v>
       </c>
     </row>
     <row r="53">
@@ -1330,13 +1330,13 @@
         <v>2019</v>
       </c>
       <c r="C53" t="n">
-        <v>1.286740800929043</v>
+        <v>1.282086093880505</v>
       </c>
       <c r="D53" t="n">
         <v>0.823832715</v>
       </c>
       <c r="E53" t="n">
-        <v>1.561895731379207</v>
+        <v>1.556245668006162</v>
       </c>
     </row>
     <row r="54">
@@ -1347,13 +1347,13 @@
         <v>2020</v>
       </c>
       <c r="C54" t="n">
-        <v>1.203646996541266</v>
+        <v>1.192528000569879</v>
       </c>
       <c r="D54" t="n">
         <v>0.652404788</v>
       </c>
       <c r="E54" t="n">
-        <v>1.844938937727824</v>
+        <v>1.827895843967778</v>
       </c>
     </row>
     <row r="55">
@@ -1364,13 +1364,13 @@
         <v>2021</v>
       </c>
       <c r="C55" t="n">
-        <v>1.17049051204346</v>
+        <v>1.161069345973242</v>
       </c>
       <c r="D55" t="n">
         <v>0.676752312</v>
       </c>
       <c r="E55" t="n">
-        <v>1.72957002331373</v>
+        <v>1.715648879782833</v>
       </c>
     </row>
   </sheetData>

--- a/test_env/database_creation/annualdata.xlsx
+++ b/test_env/database_creation/annualdata.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/test_env/database_creation/annualdata.xlsx
+++ b/test_env/database_creation/annualdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -454,9 +459,19 @@
           <t>EI (MJ/RPK)</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ICAO Target</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ATAG Target</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -471,9 +486,11 @@
       <c r="E2" t="n">
         <v>5.309124275422775</v>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -488,9 +505,11 @@
       <c r="E3" t="n">
         <v>5.348248156829396</v>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -505,9 +524,11 @@
       <c r="E4" t="n">
         <v>4.769649469688725</v>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -522,9 +543,11 @@
       <c r="E5" t="n">
         <v>4.424611056682194</v>
       </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -539,9 +562,11 @@
       <c r="E6" t="n">
         <v>4.111639033927822</v>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -556,9 +581,11 @@
       <c r="E7" t="n">
         <v>3.950778285711218</v>
       </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -573,9 +600,11 @@
       <c r="E8" t="n">
         <v>3.70495611113445</v>
       </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -590,9 +619,11 @@
       <c r="E9" t="n">
         <v>3.632577165040717</v>
       </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -607,9 +638,11 @@
       <c r="E10" t="n">
         <v>3.49374444010574</v>
       </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -624,9 +657,11 @@
       <c r="E11" t="n">
         <v>3.434830292632734</v>
       </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -641,9 +676,11 @@
       <c r="E12" t="n">
         <v>3.14676958297681</v>
       </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -658,9 +695,11 @@
       <c r="E13" t="n">
         <v>2.990826499971873</v>
       </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -675,9 +714,11 @@
       <c r="E14" t="n">
         <v>2.95181714791163</v>
       </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -692,9 +733,11 @@
       <c r="E15" t="n">
         <v>2.836980651501572</v>
       </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -709,9 +752,11 @@
       <c r="E16" t="n">
         <v>2.728437995911086</v>
       </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -726,9 +771,11 @@
       <c r="E17" t="n">
         <v>2.666283673261307</v>
       </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -743,9 +790,11 @@
       <c r="E18" t="n">
         <v>2.64294478265572</v>
       </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -760,9 +809,11 @@
       <c r="E19" t="n">
         <v>2.591404629992811</v>
       </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -777,9 +828,11 @@
       <c r="E20" t="n">
         <v>2.568457048468748</v>
       </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -794,9 +847,11 @@
       <c r="E21" t="n">
         <v>2.51608561371851</v>
       </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -811,9 +866,11 @@
       <c r="E22" t="n">
         <v>2.470025469826957</v>
       </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -828,9 +885,11 @@
       <c r="E23" t="n">
         <v>2.468942116810008</v>
       </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -845,9 +904,11 @@
       <c r="E24" t="n">
         <v>2.412790972936032</v>
       </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -862,9 +923,11 @@
       <c r="E25" t="n">
         <v>2.427417064773902</v>
       </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -879,9 +942,11 @@
       <c r="E26" t="n">
         <v>2.426527115365027</v>
       </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -896,9 +961,11 @@
       <c r="E27" t="n">
         <v>2.482425020679088</v>
       </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -913,9 +980,11 @@
       <c r="E28" t="n">
         <v>2.404364686400925</v>
       </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -930,9 +999,11 @@
       <c r="E29" t="n">
         <v>2.347553224477771</v>
       </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -947,9 +1018,11 @@
       <c r="E30" t="n">
         <v>2.307584932085988</v>
       </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -964,9 +1037,11 @@
       <c r="E31" t="n">
         <v>2.256651242627457</v>
       </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -981,9 +1056,11 @@
       <c r="E32" t="n">
         <v>2.28918664139974</v>
       </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -998,9 +1075,11 @@
       <c r="E33" t="n">
         <v>2.262868496346657</v>
       </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -1015,9 +1094,11 @@
       <c r="E34" t="n">
         <v>2.182060772579935</v>
       </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -1032,9 +1113,11 @@
       <c r="E35" t="n">
         <v>2.238088863870379</v>
       </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -1049,9 +1132,11 @@
       <c r="E36" t="n">
         <v>2.092767501595088</v>
       </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -1066,9 +1151,11 @@
       <c r="E37" t="n">
         <v>2.003678094792526</v>
       </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -1083,9 +1170,11 @@
       <c r="E38" t="n">
         <v>1.942458098937694</v>
       </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -1100,9 +1189,13 @@
       <c r="E39" t="n">
         <v>1.868127712959109</v>
       </c>
+      <c r="F39" t="n">
+        <v>1.868127712959109</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -1117,9 +1210,13 @@
       <c r="E40" t="n">
         <v>1.831184720989466</v>
       </c>
+      <c r="F40" t="n">
+        <v>1.830765158699927</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -1134,9 +1231,13 @@
       <c r="E41" t="n">
         <v>1.796358665381595</v>
       </c>
+      <c r="F41" t="n">
+        <v>1.794149855525928</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
@@ -1151,9 +1252,13 @@
       <c r="E42" t="n">
         <v>1.790017950676122</v>
       </c>
+      <c r="F42" t="n">
+        <v>1.75826685841541</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
@@ -1168,9 +1273,13 @@
       <c r="E43" t="n">
         <v>1.763192014563349</v>
       </c>
+      <c r="F43" t="n">
+        <v>1.723101521247101</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
@@ -1185,9 +1294,13 @@
       <c r="E44" t="n">
         <v>1.758586426345316</v>
       </c>
+      <c r="F44" t="n">
+        <v>1.688639490822159</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
@@ -1202,9 +1315,15 @@
       <c r="E45" t="n">
         <v>1.726325600336324</v>
       </c>
+      <c r="F45" t="n">
+        <v>1.654866701005716</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.641928483761755</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
@@ -1219,9 +1338,15 @@
       <c r="E46" t="n">
         <v>1.71210566165095</v>
       </c>
+      <c r="F46" t="n">
+        <v>1.621769366985602</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.584460986830093</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
@@ -1236,9 +1361,15 @@
       <c r="E47" t="n">
         <v>1.712427052809792</v>
       </c>
+      <c r="F47" t="n">
+        <v>1.58933397964589</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.52900485229104</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
@@ -1253,9 +1384,15 @@
       <c r="E48" t="n">
         <v>1.679380119034046</v>
       </c>
+      <c r="F48" t="n">
+        <v>1.557547300052972</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.475489682460853</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
@@ -1270,9 +1407,15 @@
       <c r="E49" t="n">
         <v>1.653806632041349</v>
       </c>
+      <c r="F49" t="n">
+        <v>1.526396354051912</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.423847543574724</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
@@ -1287,9 +1430,15 @@
       <c r="E50" t="n">
         <v>1.64227561438572</v>
       </c>
+      <c r="F50" t="n">
+        <v>1.495868426970874</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.374012879549608</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
@@ -1304,9 +1453,15 @@
       <c r="E51" t="n">
         <v>1.617576590883509</v>
       </c>
+      <c r="F51" t="n">
+        <v>1.465951058431457</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.325922428765372</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
@@ -1321,9 +1476,15 @@
       <c r="E52" t="n">
         <v>1.590891680982993</v>
       </c>
+      <c r="F52" t="n">
+        <v>1.436632037262827</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.279515143758584</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
@@ -1338,9 +1499,15 @@
       <c r="E53" t="n">
         <v>1.556245668006162</v>
       </c>
+      <c r="F53" t="n">
+        <v>1.407899396517571</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.234732113727033</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
@@ -1355,9 +1522,15 @@
       <c r="E54" t="n">
         <v>1.827895843967778</v>
       </c>
+      <c r="F54" t="n">
+        <v>1.379741408587219</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.191516489746587</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
@@ -1371,6 +1544,12 @@
       </c>
       <c r="E55" t="n">
         <v>1.715648879782833</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.352146580415475</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.149813412605456</v>
       </c>
     </row>
   </sheetData>
